--- a/用例数据/深A/实时代收付/货币基金基金收益/测试结果.xlsx
+++ b/用例数据/深A/实时代收付/货币基金基金收益/测试结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="281">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -445,18 +445,12 @@
     <t>基金收益</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
     <t>005_005_062</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>20221006110153</t>
-  </si>
-  <si>
     <t>20221006000000</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>80000.120</t>
   </si>
   <si>
-    <t>9972634.980</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -532,9 +523,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>000006874881</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -550,9 +538,6 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>000011721200</t>
   </si>
   <si>
@@ -562,51 +547,21 @@
     <t>79999.860</t>
   </si>
   <si>
-    <t>100310787.940</t>
-  </si>
-  <si>
     <t>4000</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
-    <t>000006874882</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>678000001202104150028056</t>
   </si>
   <si>
     <t>159014</t>
   </si>
   <si>
-    <t>9892634.860</t>
-  </si>
-  <si>
-    <t>000006874883</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>678000001202104150028057</t>
   </si>
   <si>
     <t>159015</t>
   </si>
   <si>
-    <t>9812634.740</t>
-  </si>
-  <si>
-    <t>000006874884</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
     <t>000011721201</t>
   </si>
   <si>
@@ -616,36 +571,12 @@
     <t>0117212001</t>
   </si>
   <si>
-    <t>100082246.360</t>
-  </si>
-  <si>
     <t>00001</t>
   </si>
   <si>
-    <t>000006874885</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
     <t>39999.930</t>
   </si>
   <si>
-    <t>100350787.870</t>
-  </si>
-  <si>
-    <t>000006874886</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>100122246.290</t>
-  </si>
-  <si>
-    <t>000006874887</t>
-  </si>
-  <si>
     <t>REGNAME</t>
   </si>
   <si>
@@ -853,12 +784,85 @@
     <t>196</t>
   </si>
   <si>
-    <t>005_005_062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>30002894</t>
+  </si>
+  <si>
+    <t>20221013235959</t>
+  </si>
+  <si>
+    <t>20221014000000</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>20221013000000</t>
+  </si>
+  <si>
+    <t>1004056196.780</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>000006909436</t>
+  </si>
+  <si>
+    <t>30003019</t>
+  </si>
+  <si>
+    <t>1004796186.710</t>
+  </si>
+  <si>
+    <t>000006909561</t>
+  </si>
+  <si>
+    <t>30003018</t>
+  </si>
+  <si>
+    <t>-95311662.410</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>000006909560</t>
+  </si>
+  <si>
+    <t>30003020</t>
+  </si>
+  <si>
+    <t>-95271662.480</t>
+  </si>
+  <si>
+    <t>000006909562</t>
+  </si>
+  <si>
+    <t>30002893</t>
+  </si>
+  <si>
+    <t>14258944.520</t>
+  </si>
+  <si>
+    <t>000006909435</t>
+  </si>
+  <si>
+    <t>30002895</t>
+  </si>
+  <si>
+    <t>14178944.400</t>
+  </si>
+  <si>
+    <t>000006909437</t>
+  </si>
+  <si>
+    <t>30002896</t>
+  </si>
+  <si>
+    <t>14098944.280</t>
+  </si>
+  <si>
+    <t>000006909438</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1191,7 @@
   <dimension ref="A1:EI238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1616,202 +1620,205 @@
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="AX2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>139</v>
@@ -1823,324 +1830,327 @@
         <v>139</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CA2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CK2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CR2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="AX3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>140</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>139</v>
@@ -2152,324 +2162,327 @@
         <v>139</v>
       </c>
       <c r="BZ3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CA3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DF3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CK3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CR3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI3" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="AQ4" s="1" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="AR4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AS4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="AV4" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>140</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>139</v>
@@ -2481,324 +2494,327 @@
         <v>139</v>
       </c>
       <c r="BZ4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CA4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
+      <c r="CV4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DF4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CK4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL4" s="1" t="s">
+      <c r="DG4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CR4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG4" s="1" t="s">
+      <c r="DK4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI4" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EG4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI4" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="AQ5" s="1" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="AR5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AS5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="AV5" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BH5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>139</v>
@@ -2810,324 +2826,327 @@
         <v>139</v>
       </c>
       <c r="BZ5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CA5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="CV5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DF5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CK5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL5" s="1" t="s">
+      <c r="DG5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CR5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG5" s="1" t="s">
+      <c r="DK5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI5" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DR5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EG5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI5" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="AX6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BH6" s="1" t="s">
         <v>140</v>
       </c>
       <c r="BI6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BJ6" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="BL6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>139</v>
@@ -3139,324 +3158,327 @@
         <v>139</v>
       </c>
       <c r="BZ6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CA6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
+      <c r="CV6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DF6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CK6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL6" s="1" t="s">
+      <c r="DG6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CR6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG6" s="1" t="s">
+      <c r="DK6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ED6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI6" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="DJ6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DR6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="ED6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EE6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EG6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI6" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="AX7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BH7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="BI7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BJ7" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="BL7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>139</v>
@@ -3468,324 +3490,327 @@
         <v>139</v>
       </c>
       <c r="BZ7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CA7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
+      <c r="CV7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DF7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CK7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL7" s="1" t="s">
+      <c r="DG7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CR7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG7" s="1" t="s">
+      <c r="DK7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ED7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI7" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="DJ7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DN7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DR7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="ED7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EE7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EG7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI7" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="AX8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BH8" s="1" t="s">
         <v>140</v>
       </c>
       <c r="BI8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BJ8" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="BL8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>139</v>
@@ -3797,124 +3822,124 @@
         <v>139</v>
       </c>
       <c r="BZ8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CA8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="CJ8" s="1" t="s">
+      <c r="CV8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DD8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DF8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CK8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL8" s="1" t="s">
+      <c r="DG8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CR8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG8" s="1" t="s">
+      <c r="DK8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ED8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI8" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="DJ8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DN8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DR8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="ED8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EE8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EG8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI8" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4177,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -4189,34 +4214,34 @@
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
@@ -4228,37 +4253,37 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>28</v>
@@ -4276,19 +4301,19 @@
         <v>30</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>40</v>
@@ -4300,22 +4325,22 @@
         <v>88</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>113</v>
@@ -4330,7 +4355,7 @@
         <v>135</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>129</v>
@@ -4339,34 +4364,34 @@
         <v>130</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>138</v>
@@ -4374,1939 +4399,1939 @@
     </row>
     <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD10" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX10" s="1" t="s">
+      <c r="BG10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD10" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BG10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ10" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD11" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX11" s="1" t="s">
+      <c r="BG11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ11" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BK12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BP12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BK13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BP13" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>139</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BK14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BP14" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/用例数据/深A/实时代收付/货币基金基金收益/测试结果.xlsx
+++ b/用例数据/深A/实时代收付/货币基金基金收益/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="282">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -802,9 +802,6 @@
     <t>1004056196.780</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>000006909436</t>
   </si>
   <si>
@@ -863,6 +860,14 @@
   </si>
   <si>
     <t>000006909438</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1190,16 +1195,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AX12" sqref="AX12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>254</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>160</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>172</v>
@@ -1767,7 +1772,7 @@
         <v>159</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>155</v>
@@ -1851,7 +1856,7 @@
         <v>155</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>164</v>
@@ -1950,9 +1955,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
@@ -2027,7 +2032,7 @@
         <v>184</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>175</v>
@@ -2075,7 +2080,7 @@
         <v>160</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>172</v>
@@ -2099,7 +2104,7 @@
         <v>159</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>155</v>
@@ -2183,7 +2188,7 @@
         <v>155</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>164</v>
@@ -2282,9 +2287,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
@@ -2359,7 +2364,7 @@
         <v>174</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>175</v>
@@ -2407,7 +2412,7 @@
         <v>160</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>180</v>
@@ -2431,7 +2436,7 @@
         <v>159</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>155</v>
@@ -2464,7 +2469,7 @@
         <v>155</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>164</v>
@@ -2515,7 +2520,7 @@
         <v>155</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>164</v>
@@ -2614,9 +2619,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>141</v>
@@ -2691,7 +2696,7 @@
         <v>184</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>175</v>
@@ -2739,7 +2744,7 @@
         <v>160</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>180</v>
@@ -2763,7 +2768,7 @@
         <v>159</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>155</v>
@@ -2796,7 +2801,7 @@
         <v>155</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>164</v>
@@ -2847,7 +2852,7 @@
         <v>155</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>164</v>
@@ -2946,9 +2951,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>141</v>
@@ -3023,7 +3028,7 @@
         <v>158</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>155</v>
@@ -3071,7 +3076,7 @@
         <v>160</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>145</v>
@@ -3095,7 +3100,7 @@
         <v>159</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>155</v>
@@ -3179,7 +3184,7 @@
         <v>155</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>164</v>
@@ -3278,9 +3283,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>141</v>
@@ -3355,7 +3360,7 @@
         <v>158</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>155</v>
@@ -3403,7 +3408,7 @@
         <v>160</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>145</v>
@@ -3427,7 +3432,7 @@
         <v>159</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>155</v>
@@ -3511,7 +3516,7 @@
         <v>155</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>164</v>
@@ -3610,9 +3615,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>141</v>
@@ -3687,7 +3692,7 @@
         <v>158</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>155</v>
@@ -3735,7 +3740,7 @@
         <v>160</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>145</v>
@@ -3759,7 +3764,7 @@
         <v>159</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>155</v>
@@ -3843,7 +3848,7 @@
         <v>155</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>164</v>
@@ -3942,236 +3947,236 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4186,9 +4191,9 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>222</v>
       </c>
@@ -4546,7 +4551,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -4695,7 +4700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>222</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>222</v>
       </c>
@@ -5142,7 +5147,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>222</v>
       </c>
@@ -5291,7 +5296,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
@@ -5440,7 +5445,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>222</v>
       </c>
@@ -5589,7 +5594,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>222</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
@@ -5887,7 +5892,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -6036,7 +6041,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>222</v>
       </c>
@@ -6185,7 +6190,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>222</v>
       </c>
@@ -6334,16 +6339,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
